--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_222.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_222.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.225095785440613</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E', 'E', 'B', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'D', 'C', 'G']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(12.672857, 24.573083)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(52.711123, 62.486724)]</t>
+          <t>[('0:00:12.820000', '0:00:52.640000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>isophonics_200</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3804347826086957</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>[['E', 'A', 'D', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(38.62, 44.06)]</t>
+          <t>[['B', 'E', 'A', 'E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(36.6, 39.0)]</t>
+          <t>[('0:00:32.640577', '0:00:51.448740')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:27.840748', '0:00:45.720113')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(40.82, 43.62)]</t>
+          <t>[('0:00:06.880000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:16.720000', '0:00:26.460000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(2.58, 7.08)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(7.14, 22.68)]</t>
+          <t>[('0:02:09.380000', '0:02:14.740000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_139</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2217245240761478</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['G', 'C', 'D', 'G', 'C', 'D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[['A', 'D', 'E', 'A', 'D', 'E']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[('0:00:50.506553', '0:01:00.804603')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:51.315598', '0:01:03.292358')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:00:03.900000', '0:00:16.080000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:08.340000', '0:01:20')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_255</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1136044880785414</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(10.76, 23.6), (47.14, 55.2), (0.36, 5.6)]</t>
+          <t>[['D:min', 'G:min/5', 'D:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88), (32.04, 33.42), (7.7, 12.06)]</t>
+          <t>[('0:00:01.360000', '0:00:04.740000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(96.66, 106.3)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(101.44, 112.4)]</t>
+          <t>[('0:00:00.360000', '0:00:05.600000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:47.580000', '0:00:50.040000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(41.3, 43.48)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:02.020000', '0:00:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_92</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1402173913043478</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[['E:7', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76)]</t>
+          <t>[('0:00:18.300000', '0:00:20.680000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:24.631133', '0:00:29.751133')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1252173913043478</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_124</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(18.66, 20.74)]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[('0:01:34.060000', '0:01:53.500000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:27.160000', '0:00:38.460000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(32.7, 45.64)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E', 'F:min', 'D:hdim7', 'C:min', 'C#:maj', 'G#:maj/C', 'G:7', 'G#:maj'], ['C:7/A#', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(9.9, 34.68)]</t>
+          <t>[('0:00:00.800000', '0:00:09.520000'), ('0:01:10.800000', '0:01:18.300000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:02', '0:00:11.360000'), ('0:01:18.100000', '0:01:26.060000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.36, 5.6)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E', 'F:min', 'D:hdim7', 'C:min', 'C#:maj', 'G#:maj/C', 'G:7', 'G#:maj'], ['C:7/A#', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[('0:00:00.660000', '0:00:09.200000'), ('0:01:13.180000', '0:01:20.700000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(85.16, 94.9)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(93.3, 103.06)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:02', '0:00:11.360000'), ('0:01:18.100000', '0:01:26.060000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
